--- a/FA Report Disposal/src/FA Report.xlsx
+++ b/FA Report Disposal/src/FA Report.xlsx
@@ -1,53 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <x:workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Depot\Platform-ModernDev\source\Prod\Microsoft.Dynamics.Nav.CodeAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT-DEV\Documents\BC-Projects\FA Report Disposal\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB0B4C8-236B-49DA-8A2A-1AA4CDCC3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
-    <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
-    <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB6ABE-4DE5-412D-AE43-74E08DE8854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="TranslationData" sheetId="2" r:id="rId2"/>
+    <sheet name="CaptionData" sheetId="3" r:id="rId3"/>
+    <sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <definedNames>
+    <definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
-  <si>
-    <t>TemplateColumn</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Language</t>
   </si>
@@ -61,9 +58,6 @@
     <t>Caption</t>
   </si>
   <si>
-    <t>KeyValue</t>
-  </si>
-  <si>
     <t>Request Page Option</t>
   </si>
   <si>
@@ -201,226 +195,283 @@
   <si>
     <t>Tenant Entra Id Value</t>
   </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>FA_No_</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FA_Posting_Type</t>
+  </si>
+  <si>
+    <t>FA_Posting_Category</t>
+  </si>
+  <si>
+    <t>Posting_Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>FA_Class_Code</t>
+  </si>
+  <si>
+    <t>FA_Posting_Group</t>
+  </si>
+  <si>
+    <t>FA_Subclass_Code</t>
+  </si>
+  <si>
+    <t>Depreciation_Book_Code</t>
+  </si>
+  <si>
+    <t>Depreciation_Method</t>
+  </si>
+  <si>
+    <t>Depreciation_Starting_Date</t>
+  </si>
+  <si>
+    <t>FA_Posting_Group_Dep</t>
+  </si>
+  <si>
+    <t>BusiUnit</t>
+  </si>
+  <si>
+    <t>Hotels</t>
+  </si>
+  <si>
+    <t>Responsible_Employee</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="0"/>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="3">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFC0C0C0"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="5">
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:b/>
-        <x:i val="0"/>
-        <x:strike val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:outline val="0"/>
-        <x:shadow val="0"/>
-        <x:u val="none"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color auto="1"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-        <x:scheme val="minor"/>
-      </x:font>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor indexed="64"/>
-          <x:bgColor rgb="FFC0C0C0"/>
-        </x:patternFill>
-      </x:fill>
-    </x:dxf>
-  </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="17">
-    <x:tableColumn id="1" name="StartDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="EndDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="FA_No_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="FA_Posting_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="FA_Posting_Category" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="FA_Class_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="FA_Posting_Group" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="FA_Subclass_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="Depreciation_Book_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="Depreciation_Method" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="Depreciation_Starting_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="FA_Posting_Group_Dep" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="15" name="BusiUnit" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="16" name="Hotels" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="17" name="Responsible_Employee" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:R2" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:R2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDate"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDate"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_No_"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_Posting_Type"/>
+    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_Posting_Category"/>
+    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Posting_Date"/>
+    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Amount"/>
+    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_Class_Code"/>
+    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_Posting_Group"/>
+    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_Subclass_Code"/>
+    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Depreciation_Book_Code"/>
+    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Depreciation_Method"/>
+    <tableColumn id="14" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Depreciation_Starting_Date"/>
+    <tableColumn id="15" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="FA_Posting_Group_Dep"/>
+    <tableColumn id="16" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="BusiUnit"/>
+    <tableColumn id="17" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Hotels"/>
+    <tableColumn id="18" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Responsible_Employee"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -786,131 +837,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:A2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <x:cols>
-    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row>
-      <x:c r="A1" t="str">
-        <x:v>StartDate</x:v>
-      </x:c>
-      <x:c r="B1" t="str">
-        <x:v>EndDate</x:v>
-      </x:c>
-      <x:c r="C1" t="str">
-        <x:v>FA_No_</x:v>
-      </x:c>
-      <x:c r="D1" t="str">
-        <x:v>Description</x:v>
-      </x:c>
-      <x:c r="E1" t="str">
-        <x:v>FA_Posting_Type</x:v>
-      </x:c>
-      <x:c r="F1" t="str">
-        <x:v>FA_Posting_Category</x:v>
-      </x:c>
-      <x:c r="G1" t="str">
-        <x:v>Amount</x:v>
-      </x:c>
-      <x:c r="H1" t="str">
-        <x:v>FA_Class_Code</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>FA_Posting_Group</x:v>
-      </x:c>
-      <x:c r="J1" t="str">
-        <x:v>FA_Subclass_Code</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>Depreciation_Book_Code</x:v>
-      </x:c>
-      <x:c r="L1" t="str">
-        <x:v>Depreciation_Method</x:v>
-      </x:c>
-      <x:c r="M1" t="str">
-        <x:v>Depreciation_Starting_Date</x:v>
-      </x:c>
-      <x:c r="N1" t="str">
-        <x:v>FA_Posting_Group_Dep</x:v>
-      </x:c>
-      <x:c r="O1" t="str">
-        <x:v>BusiUnit</x:v>
-      </x:c>
-      <x:c r="P1" t="str">
-        <x:v>Hotels</x:v>
-      </x:c>
-      <x:c r="Q1" t="str">
-        <x:v>Responsible_Employee</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A2" s="2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="D2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="E2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="F2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="4" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="H2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="M2" s="2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="O2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="P2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="Q2" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,21 +995,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -954,26 +1028,26 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -988,195 +1062,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D37DBB-4AC2-46F2-B64A-5C237CE209EB}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.69140625" customWidth="1"/>
-    <col min="3" max="3" width="5.69140625" customWidth="1"/>
-    <col min="4" max="4" width="25.69140625" customWidth="1"/>
-    <col min="5" max="5" width="40.69140625" customWidth="1"/>
-    <col min="6" max="6" width="5.69140625" customWidth="1"/>
-    <col min="7" max="7" width="25.69140625" customWidth="1"/>
-    <col min="8" max="8" width="40.69140625" customWidth="1"/>
-    <col min="9" max="9" width="5.69140625" customWidth="1"/>
-    <col min="10" max="10" width="40.69140625" customWidth="1"/>
-    <col min="11" max="11" width="25.69140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
